--- a/Datasets/Frommann/Data/Frommann_2_D_Klaas.xlsx
+++ b/Datasets/Frommann/Data/Frommann_2_D_Klaas.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/Akademie_Projekt/Datasets/Frommann/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_66014DE83337067A61ABCB5EB297D962C1F55AF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="writing" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Hinweise" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="writing" sheetId="2" r:id="rId2"/>
+    <sheet name="Hinweise" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
   <si>
     <t>Jg</t>
   </si>
@@ -23,13 +30,13 @@
     <t xml:space="preserve">Paket </t>
   </si>
   <si>
-    <t xml:space="preserve">Titel 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titel 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titel 3</t>
+    <t>Titel 1</t>
+  </si>
+  <si>
+    <t>Titel 2</t>
+  </si>
+  <si>
+    <t>Titel 3</t>
   </si>
   <si>
     <t>Ort</t>
@@ -59,16 +66,16 @@
     <t>y</t>
   </si>
   <si>
-    <t xml:space="preserve">Bemerkung Erfassung</t>
+    <t>Bemerkung Erfassung</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t xml:space="preserve">Plattdeutsches Volkslied</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Fürstenauer Mundart.)</t>
+    <t>Plattdeutsches Volkslied</t>
+  </si>
+  <si>
+    <t>(Fürstenauer Mundart.)</t>
   </si>
   <si>
     <t>Fürstenau</t>
@@ -86,16 +93,16 @@
     <t>7.67215</t>
   </si>
   <si>
-    <t xml:space="preserve">Anmerkung im Untertitel; Erläuterungen des Herausgebers nach dem Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lieder in fränkisch-hennebergischer mundart.</t>
+    <t>Anmerkung im Untertitel; Erläuterungen des Herausgebers nach dem Text</t>
+  </si>
+  <si>
+    <t>Lieder in fränkisch-hennebergischer mundart.</t>
   </si>
   <si>
     <t xml:space="preserve">Mundart des Dorfes Exdorf </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Deß betrübt medle</t>
+    <t>1. Deß betrübt medle</t>
   </si>
   <si>
     <t>Exdorf</t>
@@ -107,16 +114,16 @@
     <t>8.731189,7</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprachliche Anmerkungen nach dem Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fränkisch-hennebergische Mundart.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mundart des Dorfes Queienfeld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der liderlich</t>
+    <t>Sprachliche Anmerkungen nach dem Text</t>
+  </si>
+  <si>
+    <t>Fränkisch-hennebergische Mundart.</t>
+  </si>
+  <si>
+    <t>Mundart des Dorfes Queienfeld</t>
+  </si>
+  <si>
+    <t>Der liderlich</t>
   </si>
   <si>
     <t>Queienfeld</t>
@@ -128,13 +135,13 @@
     <t>10.452483,16</t>
   </si>
   <si>
-    <t xml:space="preserve">Henneberger Mundart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Obermassfeld an der Werra, 1 Stunde von Meiningen.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I. Sprichwörter und Volkssprüche</t>
+    <t>Henneberger Mundart</t>
+  </si>
+  <si>
+    <t>(Obermassfeld an der Werra, 1 Stunde von Meiningen.)</t>
+  </si>
+  <si>
+    <t>I. Sprichwörter und Volkssprüche</t>
   </si>
   <si>
     <t>Obermaßfeld</t>
@@ -146,16 +153,16 @@
     <t>10.4574395,14</t>
   </si>
   <si>
-    <t xml:space="preserve">ein Teil gereimt, ein Teil ungereimt; Erläuterungen nach dem Text</t>
+    <t>ein Teil gereimt, ein Teil ungereimt; Erläuterungen nach dem Text</t>
   </si>
   <si>
     <t>Polyglotten</t>
   </si>
   <si>
-    <t xml:space="preserve">Ditmarscher Mundart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De Pukerstok.</t>
+    <t>Ditmarscher Mundart</t>
+  </si>
+  <si>
+    <t>De Pukerstok.</t>
   </si>
   <si>
     <t>Dithmarschen</t>
@@ -167,13 +174,13 @@
     <t>9.0616473,10</t>
   </si>
   <si>
-    <t xml:space="preserve">Erläuterungen nach dem Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nürnberger Mundart.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Erbstock</t>
+    <t>Erläuterungen nach dem Text</t>
+  </si>
+  <si>
+    <t>Nürnberger Mundart.</t>
+  </si>
+  <si>
+    <t>Der Erbstock</t>
   </si>
   <si>
     <t>Nürnberg</t>
@@ -188,10 +195,10 @@
     <t>Polyglotten.</t>
   </si>
   <si>
-    <t xml:space="preserve">Das Wetterrennen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oldenburger Mundart (mehr aus der Gegend von Jever)</t>
+    <t>Das Wetterrennen.</t>
+  </si>
+  <si>
+    <t>Oldenburger Mundart (mehr aus der Gegend von Jever)</t>
   </si>
   <si>
     <t>Jever</t>
@@ -203,10 +210,10 @@
     <t>7.901846,10</t>
   </si>
   <si>
-    <t xml:space="preserve">Erläuterungen vor und nach dem Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koburger Mundart</t>
+    <t>Erläuterungen vor und nach dem Text</t>
+  </si>
+  <si>
+    <t>Koburger Mundart</t>
   </si>
   <si>
     <t>Coburg</t>
@@ -218,7 +225,7 @@
     <t>10.9343172,13</t>
   </si>
   <si>
-    <t xml:space="preserve">Nürnberger Mundart</t>
+    <t>Nürnberger Mundart</t>
   </si>
   <si>
     <t>49.4358977</t>
@@ -227,13 +234,13 @@
     <t>10.8212351,11</t>
   </si>
   <si>
-    <t xml:space="preserve">Schwäbische Mundart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Vom Oberneckar.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oberer Neckar</t>
+    <t>Schwäbische Mundart</t>
+  </si>
+  <si>
+    <t>(Vom Oberneckar.)</t>
+  </si>
+  <si>
+    <t>Oberer Neckar</t>
   </si>
   <si>
     <t>47.7630779</t>
@@ -245,48 +252,51 @@
     <t>ortspunktgenau</t>
   </si>
   <si>
-    <t xml:space="preserve">z.B. Ganaker</t>
+    <t>z.B. Ganaker</t>
   </si>
   <si>
     <t>kleinregional</t>
   </si>
   <si>
-    <t xml:space="preserve">z.B. Wetterau</t>
+    <t>z.B. Wetterau</t>
   </si>
   <si>
     <t>großräumig</t>
   </si>
   <si>
-    <t xml:space="preserve">z.B. Mecklenburg</t>
+    <t>z.B. Mecklenburg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12.000000"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.000000"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.500000"/>
+      <sz val="10.5"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -313,26 +323,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -340,12 +349,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -361,13 +373,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="undefined"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="undefined">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -386,291 +404,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -873,99 +608,99 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O265"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="H23" activeCellId="0" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.125"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="6.375"/>
-    <col customWidth="1" min="3" max="3" width="42.875"/>
-    <col customWidth="1" min="4" max="4" style="1" width="42.875"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="56.375"/>
-    <col customWidth="1" min="6" max="7" width="15.375"/>
-    <col bestFit="1" customWidth="1" min="8" max="8" width="12.125"/>
-    <col bestFit="1" customWidth="1" min="9" max="9" width="10.375"/>
-    <col bestFit="1" customWidth="1" min="10" max="10" width="5.5"/>
-    <col customWidth="1" min="11" max="11" width="11"/>
-    <col customWidth="1" min="12" max="12" width="14.625"/>
-    <col customWidth="1" min="13" max="13" style="2" width="11.625"/>
-    <col customWidth="1" min="14" max="14" style="2" width="10.875"/>
-    <col customWidth="1" min="15" max="15" width="20"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="42.875" customWidth="1"/>
+    <col min="5" max="5" width="56.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
@@ -974,24 +709,23 @@
       <c r="I2">
         <v>395</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="2" t="s">
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1001,7 +735,7 @@
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
@@ -1025,17 +759,17 @@
       <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1045,7 +779,7 @@
       <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>32</v>
       </c>
       <c r="E4" t="s">
@@ -1069,17 +803,17 @@
       <c r="K4" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1089,7 +823,7 @@
       <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>38</v>
       </c>
       <c r="E5" t="s">
@@ -1113,17 +847,17 @@
       <c r="K5" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="O5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1133,7 +867,7 @@
       <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>45</v>
       </c>
       <c r="E6" t="s">
@@ -1157,17 +891,17 @@
       <c r="K6" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="O6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1177,7 +911,7 @@
       <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>51</v>
       </c>
       <c r="E7" t="s">
@@ -1201,17 +935,17 @@
       <c r="K7" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="O7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1221,7 +955,7 @@
       <c r="C8" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>57</v>
       </c>
       <c r="E8" t="s">
@@ -1245,17 +979,17 @@
       <c r="K8" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="1" t="s">
         <v>61</v>
       </c>
       <c r="O8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1265,7 +999,7 @@
       <c r="C9" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>57</v>
       </c>
       <c r="E9" t="s">
@@ -1289,17 +1023,17 @@
       <c r="K9" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="1" t="s">
         <v>66</v>
       </c>
       <c r="O9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1309,7 +1043,7 @@
       <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>67</v>
       </c>
       <c r="F10" t="s">
@@ -1330,17 +1064,17 @@
       <c r="K10" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="1" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1350,7 +1084,7 @@
       <c r="C11" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>70</v>
       </c>
       <c r="E11" t="s">
@@ -1374,125 +1108,121 @@
       <c r="K11" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="1" t="s">
         <v>74</v>
       </c>
       <c r="O11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41">
-      <c r="H41" s="5"/>
-    </row>
-    <row r="69">
-      <c r="O69" s="6"/>
-    </row>
-    <row r="70">
-      <c r="O70" s="6"/>
-    </row>
-    <row r="71">
-      <c r="O71" s="6"/>
-    </row>
-    <row r="72">
-      <c r="O72" s="6"/>
-    </row>
-    <row r="111">
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-    </row>
-    <row r="112">
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-    </row>
-    <row r="265">
-      <c r="O265" s="2"/>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="4"/>
+    </row>
+    <row r="69" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O69" s="5"/>
+    </row>
+    <row r="70" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O70" s="5"/>
+    </row>
+    <row r="71" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O71" s="5"/>
+    </row>
+    <row r="72" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O72" s="5"/>
+    </row>
+    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+    </row>
+    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+    </row>
+    <row r="265" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O265" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="I34" activeCellId="0" sqref="I34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="9" width="10.875"/>
+    <col min="1" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="13.875"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="15.125"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.78740157500000008" bottom="0.78740157500000008" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>